--- a/output - Python Developer Intern - Task 2 - Datasets.xlsx
+++ b/output - Python Developer Intern - Task 2 - Datasets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26219"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_4e1\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\learn basics\intern_task_learnbasics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6EDF2CB-A756-4EB0-914C-81ADEE0719AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CB5985-5A20-413E-8B16-7F9A257BCC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -138,7 +138,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -974,11 +974,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N4" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.08984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1010,7 +1024,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1042,7 +1056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1074,7 +1088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1106,7 +1120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1138,7 +1152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1170,7 +1184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1202,7 +1216,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1234,7 +1248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1266,7 +1280,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1298,7 +1312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1330,7 +1344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1362,7 +1376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1394,7 +1408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1426,7 +1440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1458,7 +1472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1490,7 +1504,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1522,7 +1536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1554,7 +1568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1586,7 +1600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1618,7 +1632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1650,7 +1664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1682,7 +1696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1714,7 +1728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1746,7 +1760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1778,7 +1792,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -1810,7 +1824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -1842,7 +1856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -1874,7 +1888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -1906,7 +1920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -1938,7 +1952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -1970,7 +1984,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -2002,7 +2016,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -2034,7 +2048,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -2066,7 +2080,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>24</v>
       </c>
@@ -2098,7 +2112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -2130,7 +2144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>24</v>
       </c>
@@ -2162,7 +2176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -2194,7 +2208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>24</v>
       </c>
@@ -2226,7 +2240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>24</v>
       </c>
@@ -2258,7 +2272,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>24</v>
       </c>
@@ -2290,7 +2304,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>24</v>
       </c>
@@ -2322,7 +2336,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>24</v>
       </c>
@@ -2354,7 +2368,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>25</v>
       </c>
@@ -2386,7 +2400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>25</v>
       </c>
@@ -2418,7 +2432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>25</v>
       </c>
@@ -2450,7 +2464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>25</v>
       </c>
@@ -2482,7 +2496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>25</v>
       </c>
@@ -2514,7 +2528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>25</v>
       </c>
@@ -2546,7 +2560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>25</v>
       </c>
@@ -2578,7 +2592,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>25</v>
       </c>
@@ -2610,7 +2624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>25</v>
       </c>
@@ -2642,7 +2656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>26</v>
       </c>
@@ -2674,7 +2688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>26</v>
       </c>
@@ -2706,7 +2720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>26</v>
       </c>
@@ -2738,7 +2752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>26</v>
       </c>
@@ -2770,7 +2784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>26</v>
       </c>
@@ -2802,7 +2816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>26</v>
       </c>
@@ -2834,7 +2848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>26</v>
       </c>
@@ -2866,7 +2880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>26</v>
       </c>
@@ -2898,7 +2912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>26</v>
       </c>
@@ -2930,7 +2944,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>27</v>
       </c>
@@ -2962,7 +2976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>27</v>
       </c>
@@ -2994,7 +3008,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>27</v>
       </c>
@@ -3026,7 +3040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>27</v>
       </c>
@@ -3058,7 +3072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>27</v>
       </c>
@@ -3090,7 +3104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>27</v>
       </c>
@@ -3122,7 +3136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>27</v>
       </c>
@@ -3154,7 +3168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>27</v>
       </c>
@@ -3186,7 +3200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>27</v>
       </c>
@@ -3218,7 +3232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>28</v>
       </c>
@@ -3250,7 +3264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>28</v>
       </c>
@@ -3282,7 +3296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>29</v>
       </c>
@@ -3314,7 +3328,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>29</v>
       </c>
@@ -3346,7 +3360,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>29</v>
       </c>
@@ -3378,7 +3392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>29</v>
       </c>
@@ -3410,7 +3424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>29</v>
       </c>
@@ -3442,7 +3456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>29</v>
       </c>
@@ -3474,7 +3488,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>29</v>
       </c>
@@ -3506,7 +3520,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>29</v>
       </c>
@@ -3538,7 +3552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>29</v>
       </c>
@@ -3570,7 +3584,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>30</v>
       </c>
@@ -3602,7 +3616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>30</v>
       </c>
@@ -3634,7 +3648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>30</v>
       </c>
@@ -3666,7 +3680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>30</v>
       </c>
@@ -3698,7 +3712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>30</v>
       </c>
@@ -3730,7 +3744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>30</v>
       </c>
@@ -3762,7 +3776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>30</v>
       </c>
@@ -3794,7 +3808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>30</v>
       </c>
@@ -3826,7 +3840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>31</v>
       </c>
@@ -3858,7 +3872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>31</v>
       </c>
@@ -3890,7 +3904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>31</v>
       </c>
@@ -3922,7 +3936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>31</v>
       </c>
@@ -3954,7 +3968,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>31</v>
       </c>
@@ -3986,7 +4000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>31</v>
       </c>
@@ -4018,7 +4032,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>31</v>
       </c>
@@ -4050,7 +4064,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>31</v>
       </c>
@@ -4082,7 +4096,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>31</v>
       </c>
@@ -4114,7 +4128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>32</v>
       </c>
@@ -4146,7 +4160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>32</v>
       </c>
@@ -4178,7 +4192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>32</v>
       </c>
@@ -4210,7 +4224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>32</v>
       </c>
@@ -4242,7 +4256,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>32</v>
       </c>
@@ -4274,7 +4288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>32</v>
       </c>
@@ -4306,7 +4320,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>32</v>
       </c>
@@ -4338,7 +4352,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>32</v>
       </c>
